--- a/資料/資料庫總欄位表單.xlsx
+++ b/資料/資料庫總欄位表單.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="128">
   <si>
     <t>會員資料表</t>
   </si>
@@ -269,7 +269,10 @@
     <t>itemListedDate</t>
   </si>
   <si>
-    <t>itemPeriod</t>
+    <t>itemStartDate</t>
+  </si>
+  <si>
+    <t>itemEndDate</t>
   </si>
   <si>
     <t>itemSales</t>
@@ -320,7 +323,10 @@
     <t>上架日期</t>
   </si>
   <si>
-    <t>銷售期間</t>
+    <t>銷售開始日期</t>
+  </si>
+  <si>
+    <t>銷售結束期間</t>
   </si>
   <si>
     <t>銷售數量</t>
@@ -838,7 +844,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="11" width="16.38"/>
+    <col customWidth="1" min="1" max="9" width="16.38"/>
+    <col customWidth="1" min="10" max="10" width="15.0"/>
+    <col customWidth="1" min="11" max="11" width="13.25"/>
+    <col customWidth="1" min="12" max="12" width="13.0"/>
     <col customWidth="1" min="15" max="19" width="15.13"/>
   </cols>
   <sheetData>
@@ -1781,19 +1790,19 @@
       <c r="J24" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="M24" s="18" t="s">
+      <c r="M24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="O24" s="18" t="s">
+      <c r="O24" s="2" t="s">
         <v>80</v>
       </c>
       <c r="P24" s="18" t="s">
@@ -1808,10 +1817,12 @@
       <c r="S24" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="U24" s="2"/>
+      <c r="U24" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -1829,57 +1840,59 @@
         <v>59</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="K25" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="M25" s="18" t="s">
+      <c r="L25" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="M25" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="N25" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="O25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q25" s="14" t="s">
+      <c r="P25" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="R25" s="2" t="s">
+      <c r="Q25" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="S25" s="18" t="s">
+      <c r="R25" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="T25" s="18" t="s">
+      <c r="S25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="U25" s="2"/>
+      <c r="T25" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>104</v>
+      </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
@@ -1900,7 +1913,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>26</v>
@@ -1917,26 +1930,26 @@
       <c r="J26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="18" t="s">
+      <c r="K26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N26" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L26" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="N26" s="2" t="s">
+      <c r="P26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="O26" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>26</v>
@@ -1947,7 +1960,9 @@
       <c r="T26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U26" s="2"/>
+      <c r="U26" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
@@ -1983,26 +1998,21 @@
         <v>150.0</v>
       </c>
       <c r="J27" s="2"/>
-      <c r="K27" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5.0</v>
-      </c>
+      <c r="K27" s="14"/>
       <c r="M27" s="14">
         <v>5.0</v>
       </c>
       <c r="N27" s="14">
+        <v>5.0</v>
+      </c>
+      <c r="O27" s="14">
         <v>4800.0</v>
       </c>
-      <c r="O27" s="14">
+      <c r="P27" s="14">
         <v>1500.0</v>
       </c>
-      <c r="P27" s="14">
+      <c r="Q27" s="14">
         <v>3.0</v>
-      </c>
-      <c r="Q27" s="14">
-        <v>9.0</v>
       </c>
       <c r="R27" s="14">
         <v>9.0</v>
@@ -2013,7 +2023,9 @@
       <c r="T27" s="14">
         <v>9.0</v>
       </c>
-      <c r="U27" s="2"/>
+      <c r="U27" s="14">
+        <v>9.0</v>
+      </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
@@ -2050,7 +2062,7 @@
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2080,7 +2092,7 @@
     </row>
     <row r="30">
       <c r="A30" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>2</v>
@@ -2117,16 +2129,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2136,7 +2148,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -2157,16 +2169,16 @@
         <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2177,10 +2189,10 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -2217,7 +2229,7 @@
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -2302,7 +2314,7 @@
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2332,7 +2344,7 @@
     </row>
     <row r="37">
       <c r="A37" s="19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>2</v>
@@ -2369,16 +2381,16 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -2407,16 +2419,16 @@
         <v>14</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2546,7 +2558,7 @@
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B43" s="21"/>
       <c r="C43" s="21"/>
@@ -2576,7 +2588,7 @@
     </row>
     <row r="44">
       <c r="A44" s="20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>2</v>
@@ -2615,7 +2627,7 @@
         <v>3</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C45" s="25" t="s">
         <v>4</v>
@@ -2651,7 +2663,7 @@
         <v>14</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C46" s="25" t="s">
         <v>15</v>

--- a/資料/資料庫總欄位表單.xlsx
+++ b/資料/資料庫總欄位表單.xlsx
@@ -1360,8 +1360,8 @@
       <c r="C12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
+      <c r="D12" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
